--- a/tables/StatsPerModel_AllGroups.xlsx
+++ b/tables/StatsPerModel_AllGroups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">Climate</t>
   </si>
@@ -53,202 +53,199 @@
     <t xml:space="preserve">CZ</t>
   </si>
   <si>
-    <t xml:space="preserve"> 200.985</t>
+    <t xml:space="preserve"> 195.529</t>
   </si>
   <si>
     <t xml:space="preserve">0.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3078</t>
+    <t xml:space="preserve">0.3108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 111.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  87.959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  85.814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -66.818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  63.492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0090</t>
   </si>
   <si>
     <t xml:space="preserve">0.0059</t>
   </si>
   <si>
-    <t xml:space="preserve">ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 115.835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0210</t>
+    <t xml:space="preserve">Phenology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 142.366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  48.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0120</t>
   </si>
   <si>
     <t xml:space="preserve">0.0196</t>
   </si>
   <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  93.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  92.289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -67.855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  68.337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0055</t>
+    <t xml:space="preserve">  24.457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  61.906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -65.444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 202.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 101.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  65.954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  79.412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-107.275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.268</t>
   </si>
   <si>
     <t xml:space="preserve">0.0104</t>
   </si>
   <si>
-    <t xml:space="preserve">Phenology</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 142.366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  48.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  21.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  61.906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0062</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -65.442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   4.301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 202.092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0580</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 101.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  65.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  79.412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-107.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  72.651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0167</t>
+    <t xml:space="preserve">0.0162</t>
   </si>
   <si>
     <t xml:space="preserve"> 179.963</t>
@@ -269,22 +266,16 @@
     <t xml:space="preserve">0.0038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0121</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.0159</t>
   </si>
   <si>
     <t xml:space="preserve">0.0346</t>
   </si>
   <si>
-    <t xml:space="preserve">  27.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0032</t>
+    <t xml:space="preserve">  29.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0193</t>
   </si>
   <si>
     <t xml:space="preserve">  65.658</t>
@@ -296,10 +287,7 @@
     <t xml:space="preserve">0.0484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -70.198</t>
+    <t xml:space="preserve"> -70.217</t>
   </si>
   <si>
     <t xml:space="preserve">0.0005</t>
@@ -308,10 +296,10 @@
     <t xml:space="preserve">0.0008</t>
   </si>
   <si>
-    <t xml:space="preserve">  -1.198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0002</t>
+    <t xml:space="preserve">  -1.199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0004</t>
   </si>
 </sst>
 </file>
@@ -740,13 +728,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0.867131085465137</v>
+        <v>0.451552025901094</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.351750771739759</v>
+        <v>0.501598842044217</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -758,28 +746,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0.585025436721632</v>
+        <v>0.820479615656105</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.444349224400388</v>
+        <v>0.365039974812907</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -791,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
@@ -809,10 +797,10 @@
         <v>28</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.234259274879426</v>
+        <v>1.07883192523228</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.628383468132684</v>
+        <v>0.298959009293716</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -839,13 +827,13 @@
         <v>33</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>239.920533972763</v>
+        <v>217.401162365279</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000409291454928183</v>
+        <v>0.000000000000000000000000000000000000000000000000333634802180068</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -857,11 +845,11 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
@@ -875,10 +863,10 @@
         <v>14</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.563775402301085</v>
+        <v>1.15570031064301</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.452743062662636</v>
+        <v>0.282359046313097</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -890,28 +878,28 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.678704755362972</v>
+        <v>0.803188989824821</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.410033094023128</v>
+        <v>0.370141621070856</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -920,31 +908,31 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>12.4575387813595</v>
+        <v>12.4575385169125</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.000416308140339203</v>
+        <v>0.000416308199279498</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -953,31 +941,31 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.63583426614171</v>
+        <v>1.63583435927629</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.200897982905626</v>
+        <v>0.200897970084255</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -986,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -1007,10 +995,10 @@
         <v>52</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>2.97669475665734</v>
+        <v>2.34076172615228</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0844716123734287</v>
+        <v>0.126027914549808</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1019,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1040,10 +1028,10 @@
         <v>56</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>199.602075959791</v>
+        <v>199.602075214575</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00000000000000000000000000000000000000000000255075209205573</v>
+        <v>0.00000000000000000000000000000000000000000000255075304720158</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1052,31 +1040,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
       </c>
       <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" s="5" t="n">
-        <v>3.32303711521924</v>
+        <v>3.22742751146009</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0683155170816118</v>
+        <v>0.0724143577915917</v>
       </c>
       <c r="K12" s="6"/>
     </row>
@@ -1085,13 +1073,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1106,16 +1094,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.222749092030209</v>
+        <v>0.172361441965619</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.636953184492824</v>
+        <v>0.678021590568556</v>
       </c>
       <c r="K13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1124,97 +1112,97 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.01772128749812</v>
+        <v>1.0177212831231</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.313060136599908</v>
+        <v>0.313060137640021</v>
       </c>
       <c r="K14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="I15" s="5" t="n">
-        <v>2.81700779635951</v>
+        <v>2.8170077470246</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0932701281210258</v>
+        <v>0.0932701309882713</v>
       </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.559709863748678</v>
+        <v>0.748383343678289</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.454377166484561</v>
+        <v>0.386988556896084</v>
       </c>
       <c r="K16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1223,40 +1211,40 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>125.233291449939</v>
+        <v>125.233295479685</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0000000000000000000000000000452496488438783</v>
+        <v>0.0000000000000000000000000000452495569548576</v>
       </c>
       <c r="K17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1271,32 +1259,32 @@
         <v>14</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.0300822689067</v>
+        <v>1.00354825012357</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.310139345855533</v>
+        <v>0.316453455728206</v>
       </c>
       <c r="K18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1304,91 +1292,91 @@
         <v>14</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>2.25442057369921</v>
+        <v>2.2856652350815</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.133233316355701</v>
+        <v>0.130574145879305</v>
       </c>
       <c r="K19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>6.22826518225985</v>
+        <v>6.22826520348495</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0125726851499221</v>
+        <v>0.0125726849992178</v>
       </c>
       <c r="K20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="I21" s="5" t="n">
-        <v>3.54772741454483</v>
+        <v>3.54772739947128</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0596270632345924</v>
+        <v>0.0596270637763077</v>
       </c>
       <c r="K21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -1397,64 +1385,64 @@
         <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.150125155238556</v>
+        <v>1.80967753781384</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.698415784172456</v>
+        <v>0.17854691709412</v>
       </c>
       <c r="K22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>197.202551402774</v>
+        <v>197.202553496921</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.00000000000000000000000000000000000000000000851763095809682</v>
+        <v>0.00000000000000000000000000000000000000000000851762199473749</v>
       </c>
       <c r="K23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -1463,31 +1451,31 @@
         <v>14</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.359641949574924</v>
+        <v>0.465350989720552</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.548705154793116</v>
+        <v>0.49513374162592</v>
       </c>
       <c r="K24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -1499,13 +1487,13 @@
         <v>14</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.0603025879637366</v>
+        <v>0.0582217579038382</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.806018325573651</v>
+        <v>0.809328925420625</v>
       </c>
       <c r="K25" s="6"/>
     </row>
